--- a/manuscript/table/fw_table.xlsx
+++ b/manuscript/table/fw_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anubhav/Google Drive/GitHub/C3_overestimation/manuscript/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10590999-CE02-4B44-A996-7052531594C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B6E1A-CE87-B84C-B6C6-77B677E41922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27100" windowHeight="16240" xr2:uid="{5630FE5A-2415-C14B-A720-DAE3A8C2DA1A}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Observed connectance</t>
   </si>
   <si>
-    <t>95\% prediction interval of predicted connectance  (Gupta et al. (2022))</t>
-  </si>
-  <si>
     <t>0.26 - 0.59</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>0.25 - 0.47</t>
+  </si>
+  <si>
+    <t>95\% prediction interval of predicted connectance  (Gupta et al. 2022)</t>
   </si>
 </sst>
 </file>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E828A254-C7D5-3942-9CB6-40A36861DBE1}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -553,7 +553,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -573,7 +573,7 @@
         <v>0.21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -594,7 +594,7 @@
         <v>0.19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -614,7 +614,7 @@
         <v>0.03</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>0.08</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>0.05</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -674,7 +674,7 @@
         <v>0.03</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>0.06</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -714,7 +714,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -734,7 +734,7 @@
         <v>0.06</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>0.08</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -774,7 +774,7 @@
         <v>0.04</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
         <v>0.24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/table/fw_table.xlsx
+++ b/manuscript/table/fw_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anubhav/Google Drive/GitHub/C3_overestimation/manuscript/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B6E1A-CE87-B84C-B6C6-77B677E41922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEB6B43-2AAB-7D48-91AC-D9143DEBE91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27100" windowHeight="16240" xr2:uid="{5630FE5A-2415-C14B-A720-DAE3A8C2DA1A}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="27100" windowHeight="16120" xr2:uid="{5630FE5A-2415-C14B-A720-DAE3A8C2DA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,15 +111,9 @@
 et al. 2010)</t>
   </si>
   <si>
-    <t>Guy Woodward. (2021)</t>
-  </si>
-  <si>
     <t>Brose et al. (2005)</t>
   </si>
   <si>
-    <t>Observed connectance</t>
-  </si>
-  <si>
     <t>0.26 - 0.59</t>
   </si>
   <si>
@@ -156,7 +150,13 @@
     <t>0.25 - 0.47</t>
   </si>
   <si>
-    <t>95\% prediction interval of predicted connectance  (Gupta et al. 2022)</t>
+    <t>Guy Woodward (2021)</t>
+  </si>
+  <si>
+    <t>95\% prediction interval of predicted connectance  of the ADBM  (Gupta et al. 2022)</t>
+  </si>
+  <si>
+    <t>Observed connectance (Links/Species$^2$)</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -550,10 +550,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -561,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -573,7 +573,7 @@
         <v>0.21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -582,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -594,7 +594,7 @@
         <v>0.19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -614,7 +614,7 @@
         <v>0.03</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>0.08</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -642,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -654,7 +654,7 @@
         <v>0.05</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -674,7 +674,7 @@
         <v>0.03</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="102" x14ac:dyDescent="0.2">
@@ -682,7 +682,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -694,7 +694,7 @@
         <v>0.06</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -702,7 +702,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -714,7 +714,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -734,7 +734,7 @@
         <v>0.06</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -754,7 +754,7 @@
         <v>0.08</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -774,7 +774,7 @@
         <v>0.04</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="119" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -794,7 +794,7 @@
         <v>0.24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
